--- a/Code/Results/Cases/Case_8_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019134867923197</v>
+        <v>1.015482430290864</v>
       </c>
       <c r="D2">
-        <v>1.038872518218305</v>
+        <v>1.035302862088376</v>
       </c>
       <c r="E2">
-        <v>1.022946792279523</v>
+        <v>1.019810517641461</v>
       </c>
       <c r="F2">
-        <v>1.043616786652594</v>
+        <v>1.040884910211261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057204047207091</v>
+        <v>1.054919757520897</v>
       </c>
       <c r="J2">
-        <v>1.040757941979051</v>
+        <v>1.037209723986303</v>
       </c>
       <c r="K2">
-        <v>1.049815612024363</v>
+        <v>1.046291341745251</v>
       </c>
       <c r="L2">
-        <v>1.034095436785907</v>
+        <v>1.031000590756275</v>
       </c>
       <c r="M2">
-        <v>1.054500159323412</v>
+        <v>1.051802588961926</v>
       </c>
       <c r="N2">
-        <v>1.042235937633265</v>
+        <v>1.030460242428093</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051705525366122</v>
+        <v>1.049570608771911</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046294199044583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04381097175002</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024289269302858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022614090851835</v>
+        <v>1.018694733277056</v>
       </c>
       <c r="D3">
-        <v>1.041211326469231</v>
+        <v>1.037381557971119</v>
       </c>
       <c r="E3">
-        <v>1.025672427364678</v>
+        <v>1.022299827304349</v>
       </c>
       <c r="F3">
-        <v>1.046058549625252</v>
+        <v>1.043128419634682</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058162785869924</v>
+        <v>1.055707704393128</v>
       </c>
       <c r="J3">
-        <v>1.042506698239371</v>
+        <v>1.03868841763294</v>
       </c>
       <c r="K3">
-        <v>1.051342716782947</v>
+        <v>1.047557473691941</v>
       </c>
       <c r="L3">
-        <v>1.035987033210613</v>
+        <v>1.032655112061421</v>
       </c>
       <c r="M3">
-        <v>1.056134162437909</v>
+        <v>1.053237673229434</v>
       </c>
       <c r="N3">
-        <v>1.04398717732806</v>
+        <v>1.031289286615004</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052998708461614</v>
+        <v>1.050706366825631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04737133478998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04470330484728</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024532243524168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024828893633018</v>
+        <v>1.020740996415922</v>
       </c>
       <c r="D4">
-        <v>1.042704047443408</v>
+        <v>1.03870949900001</v>
       </c>
       <c r="E4">
-        <v>1.027412998181004</v>
+        <v>1.023891025723895</v>
       </c>
       <c r="F4">
-        <v>1.047618923659013</v>
+        <v>1.044563362072294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058764749923308</v>
+        <v>1.056201290121175</v>
       </c>
       <c r="J4">
-        <v>1.043618113735975</v>
+        <v>1.039628624968155</v>
       </c>
       <c r="K4">
-        <v>1.052313007448896</v>
+        <v>1.048362146535407</v>
       </c>
       <c r="L4">
-        <v>1.03719145797491</v>
+        <v>1.033709410686384</v>
       </c>
       <c r="M4">
-        <v>1.057174691096518</v>
+        <v>1.0541521269454</v>
       </c>
       <c r="N4">
-        <v>1.045100171162151</v>
+        <v>1.03181642036613</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05382220271956</v>
+        <v>1.051430085219393</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048058285017265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045273238655758</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024684421587782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025754639034423</v>
+        <v>1.021596428447309</v>
       </c>
       <c r="D5">
-        <v>1.04333075327744</v>
+        <v>1.039267454660636</v>
       </c>
       <c r="E5">
-        <v>1.028142241272691</v>
+        <v>1.024557910940794</v>
       </c>
       <c r="F5">
-        <v>1.048273187547159</v>
+        <v>1.04516530586926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059015797521018</v>
+        <v>1.056407050733027</v>
       </c>
       <c r="J5">
-        <v>1.044083700393721</v>
+        <v>1.040022648474369</v>
       </c>
       <c r="K5">
-        <v>1.052720683913016</v>
+        <v>1.048700660845095</v>
       </c>
       <c r="L5">
-        <v>1.037696084310345</v>
+        <v>1.034151306829162</v>
       </c>
       <c r="M5">
-        <v>1.057611032260439</v>
+        <v>1.054535832736063</v>
       </c>
       <c r="N5">
-        <v>1.045566419006355</v>
+        <v>1.032037331733803</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054167531185268</v>
+        <v>1.051733758049768</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048353631067435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045520408404416</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024748433963336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02591340732379</v>
+        <v>1.021742937678264</v>
       </c>
       <c r="D6">
-        <v>1.043440562523823</v>
+        <v>1.039365410543764</v>
       </c>
       <c r="E6">
-        <v>1.028267900757036</v>
+        <v>1.02467268405938</v>
       </c>
       <c r="F6">
-        <v>1.048386264154835</v>
+        <v>1.04526933533034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059060525874018</v>
+        <v>1.05644393717813</v>
       </c>
       <c r="J6">
-        <v>1.044165335804306</v>
+        <v>1.040091818228525</v>
       </c>
       <c r="K6">
-        <v>1.052793703002324</v>
+        <v>1.048761757165378</v>
       </c>
       <c r="L6">
-        <v>1.037784037785408</v>
+        <v>1.034228312837848</v>
       </c>
       <c r="M6">
-        <v>1.057687519817059</v>
+        <v>1.054603220422917</v>
       </c>
       <c r="N6">
-        <v>1.045648170348586</v>
+        <v>1.032076112084301</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054228064835717</v>
+        <v>1.051787090069326</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048413907647737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045573140644676</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024760608333659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024851579181854</v>
+        <v>1.020779352544901</v>
       </c>
       <c r="D7">
-        <v>1.042725482620203</v>
+        <v>1.038741760946529</v>
       </c>
       <c r="E7">
-        <v>1.027432261481847</v>
+        <v>1.023924715248979</v>
       </c>
       <c r="F7">
-        <v>1.047637046776638</v>
+        <v>1.044590635585481</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058775711846988</v>
+        <v>1.05622032670291</v>
       </c>
       <c r="J7">
-        <v>1.043634389811366</v>
+        <v>1.039660150868268</v>
       </c>
       <c r="K7">
-        <v>1.052331371521474</v>
+        <v>1.048391201721064</v>
       </c>
       <c r="L7">
-        <v>1.037207609607012</v>
+        <v>1.033739809202235</v>
       </c>
       <c r="M7">
-        <v>1.057189799075912</v>
+        <v>1.05417627383062</v>
       </c>
       <c r="N7">
-        <v>1.045116470351436</v>
+        <v>1.031885918833751</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053834159456455</v>
+        <v>1.051449195575684</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048091158967587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045315708762117</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024693705486038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020331236618944</v>
+        <v>1.016641723629918</v>
       </c>
       <c r="D8">
-        <v>1.039683416614693</v>
+        <v>1.036063341360382</v>
       </c>
       <c r="E8">
-        <v>1.023884701279399</v>
+        <v>1.020717526392231</v>
       </c>
       <c r="F8">
-        <v>1.044457736363628</v>
+        <v>1.041690316877914</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057541309651635</v>
+        <v>1.055227033872261</v>
       </c>
       <c r="J8">
-        <v>1.041365673145898</v>
+        <v>1.037777957006179</v>
       </c>
       <c r="K8">
-        <v>1.05035139775481</v>
+        <v>1.046776002992762</v>
       </c>
       <c r="L8">
-        <v>1.034750573792145</v>
+        <v>1.031623991852465</v>
       </c>
       <c r="M8">
-        <v>1.055067379351343</v>
+        <v>1.052333694390506</v>
       </c>
       <c r="N8">
-        <v>1.042844531848076</v>
+        <v>1.030935909456823</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052154435014264</v>
+        <v>1.049990937787198</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04669570100533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044178633679429</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024391220477487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012058787884224</v>
+        <v>1.009023134578368</v>
       </c>
       <c r="D9">
-        <v>1.034138837090645</v>
+        <v>1.031149432109755</v>
       </c>
       <c r="E9">
-        <v>1.017434799058667</v>
+        <v>1.014845934053867</v>
       </c>
       <c r="F9">
-        <v>1.038685127674444</v>
+        <v>1.036400040058737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055210161599401</v>
+        <v>1.053309398282208</v>
       </c>
       <c r="J9">
-        <v>1.037192789434702</v>
+        <v>1.034261237443606</v>
       </c>
       <c r="K9">
-        <v>1.04670129506</v>
+        <v>1.043756567687771</v>
       </c>
       <c r="L9">
-        <v>1.030251203058679</v>
+        <v>1.027702652312053</v>
       </c>
       <c r="M9">
-        <v>1.051180265972963</v>
+        <v>1.048928921213784</v>
       </c>
       <c r="N9">
-        <v>1.038665722163375</v>
+        <v>1.028983176439566</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049078087785757</v>
+        <v>1.047296318095414</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04411174579732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042040298980204</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023798551876831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006384322919039</v>
+        <v>1.003882404639803</v>
       </c>
       <c r="D10">
-        <v>1.030381848970244</v>
+        <v>1.027883166284561</v>
       </c>
       <c r="E10">
-        <v>1.013050142991792</v>
+        <v>1.010934743462067</v>
       </c>
       <c r="F10">
-        <v>1.034832367869256</v>
+        <v>1.032928032520558</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053592551974835</v>
+        <v>1.052016808767409</v>
       </c>
       <c r="J10">
-        <v>1.034346909298999</v>
+        <v>1.031942828370628</v>
       </c>
       <c r="K10">
-        <v>1.044223393493786</v>
+        <v>1.041766592864937</v>
       </c>
       <c r="L10">
-        <v>1.027187704040555</v>
+        <v>1.025109335074086</v>
       </c>
       <c r="M10">
-        <v>1.048599959029756</v>
+        <v>1.04672716719417</v>
       </c>
       <c r="N10">
-        <v>1.035815800551452</v>
+        <v>1.02791455885925</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047086875594763</v>
+        <v>1.045604788977349</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042376398474698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040651636503408</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023412631848416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004270384913166</v>
+        <v>1.002040305063204</v>
       </c>
       <c r="D11">
-        <v>1.029156970954161</v>
+        <v>1.026884614158043</v>
       </c>
       <c r="E11">
-        <v>1.011484564543021</v>
+        <v>1.009610050280483</v>
       </c>
       <c r="F11">
-        <v>1.033972697173356</v>
+        <v>1.032250629672685</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053153188353689</v>
+        <v>1.0517330731384</v>
       </c>
       <c r="J11">
-        <v>1.033466583683509</v>
+        <v>1.031328450599915</v>
       </c>
       <c r="K11">
-        <v>1.043549208988316</v>
+        <v>1.041316731871754</v>
       </c>
       <c r="L11">
-        <v>1.026193100742113</v>
+        <v>1.024352982546524</v>
       </c>
       <c r="M11">
-        <v>1.048281169095054</v>
+        <v>1.04658893953683</v>
       </c>
       <c r="N11">
-        <v>1.034934224772614</v>
+        <v>1.028011574319427</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047266419983879</v>
+        <v>1.045927887518519</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041932268741522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040369363615125</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023386327918259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003605676757519</v>
+        <v>1.001449110961541</v>
       </c>
       <c r="D12">
-        <v>1.028834839317135</v>
+        <v>1.026621208419548</v>
       </c>
       <c r="E12">
-        <v>1.011018046943165</v>
+        <v>1.009206037623261</v>
       </c>
       <c r="F12">
-        <v>1.03393848538928</v>
+        <v>1.032265035149547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053078209725503</v>
+        <v>1.051699469492079</v>
       </c>
       <c r="J12">
-        <v>1.033258217923867</v>
+        <v>1.031192268177789</v>
       </c>
       <c r="K12">
-        <v>1.043429702619278</v>
+        <v>1.041255562616132</v>
       </c>
       <c r="L12">
-        <v>1.025937159673753</v>
+        <v>1.02415896454792</v>
       </c>
       <c r="M12">
-        <v>1.048443135357347</v>
+        <v>1.046799137998156</v>
       </c>
       <c r="N12">
-        <v>1.034725563109693</v>
+        <v>1.02812709923234</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04771792375813</v>
+        <v>1.046417974988759</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041847775333785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040326116447813</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02341195414224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004027307669856</v>
+        <v>1.00178363076152</v>
       </c>
       <c r="D13">
-        <v>1.029204892724364</v>
+        <v>1.026916255280073</v>
       </c>
       <c r="E13">
-        <v>1.011378072619215</v>
+        <v>1.009484435508184</v>
       </c>
       <c r="F13">
-        <v>1.034561668887956</v>
+        <v>1.032829999979868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053294743371595</v>
+        <v>1.051865856291879</v>
       </c>
       <c r="J13">
-        <v>1.033570195759617</v>
+        <v>1.031420349820905</v>
       </c>
       <c r="K13">
-        <v>1.043750945635087</v>
+        <v>1.041502966921946</v>
       </c>
       <c r="L13">
-        <v>1.026247172494435</v>
+        <v>1.024388725410784</v>
       </c>
       <c r="M13">
-        <v>1.049013467034899</v>
+        <v>1.047312128994135</v>
       </c>
       <c r="N13">
-        <v>1.035037983989754</v>
+        <v>1.028212648817223</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048443280840473</v>
+        <v>1.047098324554525</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042072431285652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040498318645774</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023485390301476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004814913967094</v>
+        <v>1.002441367961173</v>
       </c>
       <c r="D14">
-        <v>1.029778118921032</v>
+        <v>1.027379509787762</v>
       </c>
       <c r="E14">
-        <v>1.012004704674658</v>
+        <v>1.009992746968172</v>
       </c>
       <c r="F14">
-        <v>1.035295357128778</v>
+        <v>1.033477092823524</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053578190088011</v>
+        <v>1.05207483575802</v>
       </c>
       <c r="J14">
-        <v>1.034024119618559</v>
+        <v>1.031748444129827</v>
       </c>
       <c r="K14">
-        <v>1.044175757844192</v>
+        <v>1.041819239684404</v>
       </c>
       <c r="L14">
-        <v>1.026720402820106</v>
+        <v>1.024745368512096</v>
       </c>
       <c r="M14">
-        <v>1.049597136551115</v>
+        <v>1.047810317445746</v>
       </c>
       <c r="N14">
-        <v>1.035492552472642</v>
+        <v>1.028262097122469</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049076741009046</v>
+        <v>1.047664398101298</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042374193417205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040723477713931</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023560125373327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005249343913507</v>
+        <v>1.002810476010366</v>
       </c>
       <c r="D15">
-        <v>1.030077649724037</v>
+        <v>1.027623967329114</v>
       </c>
       <c r="E15">
-        <v>1.012343407550441</v>
+        <v>1.010272737864444</v>
       </c>
       <c r="F15">
-        <v>1.035632953477693</v>
+        <v>1.033771102576312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053716752472525</v>
+        <v>1.052175923433519</v>
       </c>
       <c r="J15">
-        <v>1.034255585163336</v>
+        <v>1.031916417236161</v>
       </c>
       <c r="K15">
-        <v>1.044384889191553</v>
+        <v>1.041973941802432</v>
       </c>
       <c r="L15">
-        <v>1.026965584057961</v>
+        <v>1.024932625178486</v>
       </c>
       <c r="M15">
-        <v>1.049844404879463</v>
+        <v>1.048014508899225</v>
       </c>
       <c r="N15">
-        <v>1.035724346725041</v>
+        <v>1.02827666285369</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04930947304847</v>
+        <v>1.047863118965929</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042527868747692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040839247131781</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023592562076961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007573293625319</v>
+        <v>1.004821984101399</v>
       </c>
       <c r="D16">
-        <v>1.03160596576333</v>
+        <v>1.028887136284177</v>
       </c>
       <c r="E16">
-        <v>1.014127375733487</v>
+        <v>1.0117793572842</v>
       </c>
       <c r="F16">
-        <v>1.037178344945965</v>
+        <v>1.035106340724837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054380522329037</v>
+        <v>1.052659077847937</v>
       </c>
       <c r="J16">
-        <v>1.035413791611232</v>
+        <v>1.032769407612265</v>
       </c>
       <c r="K16">
-        <v>1.045392014098835</v>
+        <v>1.042718497353098</v>
       </c>
       <c r="L16">
-        <v>1.02821021366553</v>
+        <v>1.025903076807849</v>
       </c>
       <c r="M16">
-        <v>1.05087247703194</v>
+        <v>1.048834501788946</v>
       </c>
       <c r="N16">
-        <v>1.036884197958942</v>
+        <v>1.028353175409367</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050083606818208</v>
+        <v>1.048472741123846</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043243065798454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041369108559144</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02372830322356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008945924438496</v>
+        <v>1.006036280507883</v>
       </c>
       <c r="D17">
-        <v>1.032479849499384</v>
+        <v>1.029624064746852</v>
       </c>
       <c r="E17">
-        <v>1.01517112706314</v>
+        <v>1.012683673643919</v>
       </c>
       <c r="F17">
-        <v>1.037975869416637</v>
+        <v>1.035795524988444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054739014908853</v>
+        <v>1.052924606281993</v>
       </c>
       <c r="J17">
-        <v>1.036064612214047</v>
+        <v>1.033264453468177</v>
       </c>
       <c r="K17">
-        <v>1.045941387054167</v>
+        <v>1.04313187648024</v>
       </c>
       <c r="L17">
-        <v>1.02891827954413</v>
+        <v>1.026472907832168</v>
       </c>
       <c r="M17">
-        <v>1.051349269624882</v>
+        <v>1.049203746935437</v>
       </c>
       <c r="N17">
-        <v>1.037535942801664</v>
+        <v>1.028444128300719</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050332365213796</v>
+        <v>1.048636324434543</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043634049019682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041664194209464</v>
+      </c>
+      <c r="S17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T17">
+        <v>1.023794510488827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009613472181913</v>
+        <v>1.006647185171896</v>
       </c>
       <c r="D18">
-        <v>1.032845881179788</v>
+        <v>1.029940205565922</v>
       </c>
       <c r="E18">
-        <v>1.015657733006235</v>
+        <v>1.013121795999666</v>
       </c>
       <c r="F18">
-        <v>1.038155539568022</v>
+        <v>1.035935148043941</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054852601548244</v>
+        <v>1.053004197319376</v>
       </c>
       <c r="J18">
-        <v>1.036318149931176</v>
+        <v>1.033461400734411</v>
       </c>
       <c r="K18">
-        <v>1.046120754806492</v>
+        <v>1.043261397790929</v>
       </c>
       <c r="L18">
-        <v>1.029211558221848</v>
+        <v>1.026717809961261</v>
       </c>
       <c r="M18">
-        <v>1.051346630158354</v>
+        <v>1.049161141269614</v>
       </c>
       <c r="N18">
-        <v>1.037789840571432</v>
+        <v>1.028472792971325</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050094516368348</v>
+        <v>1.048366527166906</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043749343406806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041743094772244</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023794647216558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009644422630232</v>
+        <v>1.006701633164389</v>
       </c>
       <c r="D19">
-        <v>1.032757624072549</v>
+        <v>1.029873163103675</v>
       </c>
       <c r="E19">
-        <v>1.015641794663682</v>
+        <v>1.013128891075077</v>
       </c>
       <c r="F19">
-        <v>1.037773079484134</v>
+        <v>1.035567795583777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054748537793494</v>
+        <v>1.052913730393721</v>
       </c>
       <c r="J19">
-        <v>1.036215434416507</v>
+        <v>1.033380668107173</v>
       </c>
       <c r="K19">
-        <v>1.045972255201469</v>
+        <v>1.043133538827342</v>
       </c>
       <c r="L19">
-        <v>1.029132758493122</v>
+        <v>1.026661437398592</v>
       </c>
       <c r="M19">
-        <v>1.050908944794251</v>
+        <v>1.048738173806489</v>
       </c>
       <c r="N19">
-        <v>1.03768697918895</v>
+        <v>1.028404501541459</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04942592575265</v>
+        <v>1.047709021895846</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043650683815854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041659662513202</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023735839675115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007880596763234</v>
+        <v>1.005184563749995</v>
       </c>
       <c r="D20">
-        <v>1.031386655430572</v>
+        <v>1.028721298497519</v>
       </c>
       <c r="E20">
-        <v>1.014208381751825</v>
+        <v>1.011918820532346</v>
       </c>
       <c r="F20">
-        <v>1.035854725362017</v>
+        <v>1.033818558181423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054034483301218</v>
+        <v>1.052345738473457</v>
       </c>
       <c r="J20">
-        <v>1.035111078565193</v>
+        <v>1.032517081785083</v>
       </c>
       <c r="K20">
-        <v>1.044899181731331</v>
+        <v>1.042277243691143</v>
       </c>
       <c r="L20">
-        <v>1.028005911640041</v>
+        <v>1.025755280210841</v>
       </c>
       <c r="M20">
-        <v>1.049295109372885</v>
+        <v>1.047291719271466</v>
       </c>
       <c r="N20">
-        <v>1.036581055025656</v>
+        <v>1.028042524823257</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047626567401673</v>
+        <v>1.046041109304753</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042895876988111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041058516086943</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023511258698523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003548942782555</v>
+        <v>1.001508904801694</v>
       </c>
       <c r="D21">
-        <v>1.028491842616407</v>
+        <v>1.026378473608042</v>
       </c>
       <c r="E21">
-        <v>1.010860964131322</v>
+        <v>1.009163250753329</v>
       </c>
       <c r="F21">
-        <v>1.032814752846106</v>
+        <v>1.031217537533619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05275002583585</v>
+        <v>1.051437691747438</v>
       </c>
       <c r="J21">
-        <v>1.032899029903884</v>
+        <v>1.030943674511459</v>
       </c>
       <c r="K21">
-        <v>1.042952812406263</v>
+        <v>1.040876757193657</v>
       </c>
       <c r="L21">
-        <v>1.025639452859934</v>
+        <v>1.023973077492074</v>
       </c>
       <c r="M21">
-        <v>1.047200012857302</v>
+        <v>1.045630674782731</v>
       </c>
       <c r="N21">
-        <v>1.034365865001523</v>
+        <v>1.027965623197318</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045928014525546</v>
+        <v>1.044685996871216</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041522942379429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040071857810939</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023254186116101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000789657259572</v>
+        <v>0.9991472452787657</v>
       </c>
       <c r="D22">
-        <v>1.026658141938286</v>
+        <v>1.024881607276927</v>
       </c>
       <c r="E22">
-        <v>1.008737899413376</v>
+        <v>1.007399605204885</v>
       </c>
       <c r="F22">
-        <v>1.030920344007599</v>
+        <v>1.029590734070863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051929978549631</v>
+        <v>1.050845960561106</v>
       </c>
       <c r="J22">
-        <v>1.031495230415953</v>
+        <v>1.02992491215894</v>
       </c>
       <c r="K22">
-        <v>1.041719369638295</v>
+        <v>1.039975760700336</v>
       </c>
       <c r="L22">
-        <v>1.024138221702041</v>
+        <v>1.022825886017082</v>
       </c>
       <c r="M22">
-        <v>1.045903179886055</v>
+        <v>1.044597933845695</v>
       </c>
       <c r="N22">
-        <v>1.0329600719573</v>
+        <v>1.027864201634438</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044901665114799</v>
+        <v>1.043868655916661</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040637473449161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039420120015065</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023087407902873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002247572996081</v>
+        <v>1.000371844293291</v>
       </c>
       <c r="D23">
-        <v>1.027621162209658</v>
+        <v>1.025649889440012</v>
       </c>
       <c r="E23">
-        <v>1.009857375721786</v>
+        <v>1.008307353266118</v>
       </c>
       <c r="F23">
-        <v>1.03191862903917</v>
+        <v>1.030433614416265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05236004418918</v>
+        <v>1.051143325769432</v>
       </c>
       <c r="J23">
-        <v>1.032232708668235</v>
+        <v>1.0304369336226</v>
       </c>
       <c r="K23">
-        <v>1.042363985974206</v>
+        <v>1.040428329171183</v>
       </c>
       <c r="L23">
-        <v>1.024927704941458</v>
+        <v>1.023406975344578</v>
       </c>
       <c r="M23">
-        <v>1.046584420655266</v>
+        <v>1.045125930580576</v>
       </c>
       <c r="N23">
-        <v>1.033698597513291</v>
+        <v>1.027832855624789</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045440818043251</v>
+        <v>1.044286527870569</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041083686761026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039729599165562</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023166316310804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007898214417343</v>
+        <v>1.005204060362045</v>
       </c>
       <c r="D24">
-        <v>1.03137361663126</v>
+        <v>1.028709708478908</v>
       </c>
       <c r="E24">
-        <v>1.014213939995714</v>
+        <v>1.011926380557248</v>
       </c>
       <c r="F24">
-        <v>1.035807597696667</v>
+        <v>1.033772436757642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05401646296046</v>
+        <v>1.052328689133438</v>
       </c>
       <c r="J24">
-        <v>1.035095582697924</v>
+        <v>1.032503245519964</v>
       </c>
       <c r="K24">
-        <v>1.044871301329775</v>
+        <v>1.042250734332479</v>
       </c>
       <c r="L24">
-        <v>1.0279959576764</v>
+        <v>1.025747243380075</v>
       </c>
       <c r="M24">
-        <v>1.049233776593459</v>
+        <v>1.047231338500258</v>
       </c>
       <c r="N24">
-        <v>1.036565537152478</v>
+        <v>1.028026874734231</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04753758840204</v>
+        <v>1.045952806486337</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042849015261951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04100991380121</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023498627465666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014249915013981</v>
+        <v>1.011016122000825</v>
       </c>
       <c r="D25">
-        <v>1.035612781312501</v>
+        <v>1.032439197877016</v>
       </c>
       <c r="E25">
-        <v>1.019140211476958</v>
+        <v>1.016375376374658</v>
       </c>
       <c r="F25">
-        <v>1.040211380869796</v>
+        <v>1.037783962258877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055842206497768</v>
+        <v>1.053819476730059</v>
       </c>
       <c r="J25">
-        <v>1.038307048596135</v>
+        <v>1.035178353296419</v>
       </c>
       <c r="K25">
-        <v>1.04768231085786</v>
+        <v>1.044553974891942</v>
       </c>
       <c r="L25">
-        <v>1.031448492529912</v>
+        <v>1.02872469500078</v>
       </c>
       <c r="M25">
-        <v>1.052215964568942</v>
+        <v>1.049822737643207</v>
       </c>
       <c r="N25">
-        <v>1.039781563700624</v>
+        <v>1.029431803876496</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049897763727119</v>
+        <v>1.048003706944099</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044833672096616</v>
+        <v>1.042635255365432</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023957279957159</v>
       </c>
     </row>
   </sheetData>
